--- a/data/data1_all.xlsx
+++ b/data/data1_all.xlsx
@@ -23087,7 +23087,9 @@
       <c r="H472" t="n">
         <v>16.10215959450281</v>
       </c>
-      <c r="I472" t="inlineStr"/>
+      <c r="I472" t="n">
+        <v>5</v>
+      </c>
       <c r="J472" t="inlineStr">
         <is>
           <t>广州</t>
